--- a/solution_registry_III.xlsx
+++ b/solution_registry_III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\solution_registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D6169-CCBF-412B-8FE3-A33F7FF19406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334AB185-162B-45AE-B517-4063DA5C839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
